--- a/1_Result_Tables/1_Naive_Forecaster_Outputs/Results_AVERAGE_10_9/AR2_50_model_statistics.xlsx
+++ b/1_Result_Tables/1_Naive_Forecaster_Outputs/Results_AVERAGE_10_9/AR2_50_model_statistics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="15">
   <si>
     <t>coefficient_Intercept</t>
   </si>
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O149"/>
+  <dimension ref="A1:O150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7422,6 +7422,53 @@
         <v>206.5462765320786</v>
       </c>
     </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150">
+        <v>0.3899701558514957</v>
+      </c>
+      <c r="C150">
+        <v>0.1369370674309387</v>
+      </c>
+      <c r="D150">
+        <v>0.2622010480287228</v>
+      </c>
+      <c r="E150">
+        <v>1.487294420763628</v>
+      </c>
+      <c r="F150">
+        <v>-0.359793547423969</v>
+      </c>
+      <c r="G150">
+        <v>0.01030296459598082</v>
+      </c>
+      <c r="H150">
+        <v>0.1402434973286363</v>
+      </c>
+      <c r="I150">
+        <v>-2.565491835823626</v>
+      </c>
+      <c r="J150">
+        <v>-0.2342056211018728</v>
+      </c>
+      <c r="K150">
+        <v>0.09435704957016465</v>
+      </c>
+      <c r="L150">
+        <v>0.1400040517506893</v>
+      </c>
+      <c r="M150">
+        <v>-1.672848879537658</v>
+      </c>
+      <c r="N150">
+        <v>199.0404038130529</v>
+      </c>
+      <c r="O150">
+        <v>206.5252078566844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
